--- a/发票信息模板_拆分表1.xlsx
+++ b/发票信息模板_拆分表1.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>-52.37</t>
+          <t>261.84</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr"/>
@@ -753,7 +753,7 @@
       <c r="B14" s="1" t="inlineStr"/>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>24337000000125832580</t>
+          <t>24337000000125830000</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>7122.62</t>
+          <t>261.84</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>-1424.52</t>
+          <t>-52.37</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>656.55</t>
+          <t>7122.62</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>-131.31</t>
+          <t>-1424.52</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>483.81</t>
+          <t>656.55</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>-96.76</t>
+          <t>-131.31</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>1183.34</t>
+          <t>483.81</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>-236.67</t>
+          <t>-96.76</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr"/>
